--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C82012-2848-47BA-A2B0-6DB367737086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE58D8-FBCA-4F82-B4D0-4C72456374C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,13 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>큰 별이 되기위한 인디 프로듀서를 위한 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NmubrKPXnmA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200만원이면 중고아닌 아이패드, 데스크탑 구매 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창팝을 시작하는 사람들을 위한 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuh3AHAj2SU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,14 +449,14 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -458,10 +474,22 @@
       <c r="A2" s="1">
         <v>45629</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45630</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE58D8-FBCA-4F82-B4D0-4C72456374C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6916C-D867-4281-B211-1721A2E97FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>wuh3AHAj2SU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzf-2YBDBMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상화의 범인을 찾는 스토리의 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok7Z07vpZvk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +461,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,10 +508,19 @@
       <c r="A4" s="1">
         <v>45631</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45632</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6916C-D867-4281-B211-1721A2E97FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4072C3B-05C4-4FFD-B302-E5D95EB7F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,42 @@
   </si>
   <si>
     <t>ok7Z07vpZvk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpSeOz_Buzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들때 생각나는 창팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창팝에 몰입한 사람들의 한해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15SB7WT5hSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 하회탈 축제에 나올법한 신나는 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tCH5eZTqcQ0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 창팝 끝물인듯 ㅋㅋ (쌀숭이손)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YRpv94DvOEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창팝다움이란 무엇인가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +497,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,25 +558,52 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45633</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45634</v>
       </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45635</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45636</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4072C3B-05C4-4FFD-B302-E5D95EB7F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB8B40-056E-4F44-94FC-3C96420EDDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>창팝다움이란 무엇인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVb0DbEY8q0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHlWCjmCJDc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 나온 디스코 장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 데뷔곡?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +513,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,10 +626,22 @@
       <c r="A10" s="1">
         <v>45637</v>
       </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45638</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB8B40-056E-4F44-94FC-3C96420EDDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32854966-7EAE-4CAF-8A85-DDD220508A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
+    <workbookView xWindow="3675" yWindow="1725" windowWidth="21600" windowHeight="11835" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>이게 데뷔곡?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfgWpRkXqvY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연을 곡으로 묻어버림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +521,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,6 +656,12 @@
       <c r="A12" s="1">
         <v>45639</v>
       </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32854966-7EAE-4CAF-8A85-DDD220508A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC51B9-230A-4680-BB41-C59AE6D45E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1725" windowWidth="21600" windowHeight="11835" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>심연을 곡으로 묻어버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tPJxVNoh7bU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼버닝 찍먹 할만해보이는데?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +529,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,6 +675,12 @@
       <c r="A13" s="1">
         <v>45640</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC51B9-230A-4680-BB41-C59AE6D45E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623DE12-C2D5-489D-B531-5CC41FAE212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>하이퍼버닝 찍먹 할만해보이는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44S2vHRdHjM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +533,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,6 +695,9 @@
       <c r="A15" s="1">
         <v>45642</v>
       </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623DE12-C2D5-489D-B531-5CC41FAE212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7C02E-1E06-4730-8B06-77202238D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>44S2vHRdHjM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QhY21SCLv1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jSJCE8uINsY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +541,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,6 +698,9 @@
       <c r="A14" s="1">
         <v>45641</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -702,6 +713,9 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45643</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C7C02E-1E06-4730-8B06-77202238D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC06E1E-031C-464C-AF1D-34E8E1EF7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
+    <workbookView xWindow="210" yWindow="1380" windowWidth="18840" windowHeight="14265" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>jSJCE8uINsY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8GGLDMxqw7c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,82 +722,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45644</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45645</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45646</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45647</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45648</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45649</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45650</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45651</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45652</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45653</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45654</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45655</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45656</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45657</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45658</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45659</v>
       </c>

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC06E1E-031C-464C-AF1D-34E8E1EF7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3429726-46B4-4E11-8842-4650D2D3BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="1380" windowWidth="18840" windowHeight="14265" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>8GGLDMxqw7c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8DMG7XEQ84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +549,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,6 +738,9 @@
       <c r="A18" s="1">
         <v>45645</v>
       </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3429726-46B4-4E11-8842-4650D2D3BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C84F1B-60A2-4BE0-B1FB-7BD742673543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="1380" windowWidth="18840" windowHeight="14265" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>p8DMG7XEQ84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M8953oNsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PunyOFQbJZI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +557,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,10 +754,16 @@
       <c r="A19" s="1">
         <v>45646</v>
       </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45647</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C84F1B-60A2-4BE0-B1FB-7BD742673543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5371463-E8A4-4CE5-B772-EE79D4CE9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="1380" windowWidth="18840" windowHeight="14265" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>PunyOFQbJZI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KXFIvGW5Cpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qroM4aUzzzU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ3Rtq7Y3Uk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +569,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -770,15 +782,24 @@
       <c r="A21" s="1">
         <v>45648</v>
       </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45649</v>
       </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45650</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5371463-E8A4-4CE5-B772-EE79D4CE9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77952FF-9E96-4150-A8DF-BA6D59EFF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1380" windowWidth="18840" windowHeight="14265" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>BJ3Rtq7Y3Uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeCRJXb4kps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E704D-17EF-42D7-9C4E-62C0CC9D413A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,9 +851,32 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77952FF-9E96-4150-A8DF-BA6D59EFF9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244616A-29DB-4BF1-8DEF-ABF00582FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E704D-17EF-42D7-9C4E-62C0CC9D413A}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,6 +879,1661 @@
         <v>36</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45860</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45914</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45927</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45929</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45934</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45937</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45941</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45943</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45948</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45950</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>45985</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>45995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244616A-29DB-4BF1-8DEF-ABF00582FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A5063-4547-4573-999F-EFA31E2A0931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>_896DWs1BkI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>jeCRJXb4kps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndLqtBO1Z-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E704D-17EF-42D7-9C4E-62C0CC9D413A}">
   <dimension ref="A1:C368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -893,6 +897,9 @@
       <c r="A40" s="1">
         <v>45667</v>
       </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">

--- a/오늘의 추천곡.xlsx
+++ b/오늘의 추천곡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\python\changpop500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A5063-4547-4573-999F-EFA31E2A0931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274D3CA-53B2-4ED5-89FF-B56AA94AC63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7B52BAE3-E229-4091-A67C-2DA8D2276164}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:C368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,13 +897,13 @@
       <c r="A40" s="1">
         <v>45667</v>
       </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45668</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
